--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi4-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi4-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Lgi4</t>
+  </si>
+  <si>
+    <t>Adam23</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lgi4</t>
-  </si>
-  <si>
-    <t>Adam23</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.070204</v>
+        <v>0.1948456666666667</v>
       </c>
       <c r="H2">
-        <v>0.210612</v>
+        <v>0.584537</v>
       </c>
       <c r="I2">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="J2">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.03428566666666667</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="N2">
-        <v>0.102857</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="O2">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="P2">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="Q2">
-        <v>0.002406990942666667</v>
+        <v>0.04537793205277777</v>
       </c>
       <c r="R2">
-        <v>0.021662918484</v>
+        <v>0.408401388475</v>
       </c>
       <c r="S2">
-        <v>3.174185698305392E-05</v>
+        <v>0.0007174196694682845</v>
       </c>
       <c r="T2">
-        <v>3.174185698305391E-05</v>
+        <v>0.0007174196694682846</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.070204</v>
+        <v>0.1948456666666667</v>
       </c>
       <c r="H3">
-        <v>0.210612</v>
+        <v>0.584537</v>
       </c>
       <c r="I3">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="J3">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>43.730186</v>
       </c>
       <c r="O3">
-        <v>0.7632441939582174</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="P3">
-        <v>0.7632441939582175</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="Q3">
-        <v>1.023344659314667</v>
+        <v>2.840212414875778</v>
       </c>
       <c r="R3">
-        <v>9.210101933832</v>
+        <v>25.561911733882</v>
       </c>
       <c r="S3">
-        <v>0.01349521481138228</v>
+        <v>0.04490341802112085</v>
       </c>
       <c r="T3">
-        <v>0.01349521481138227</v>
+        <v>0.04490341802112086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.070204</v>
+        <v>0.1948456666666667</v>
       </c>
       <c r="H4">
-        <v>0.210612</v>
+        <v>0.584537</v>
       </c>
       <c r="I4">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="J4">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.005527333333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="N4">
-        <v>0.016582</v>
+        <v>4.27139</v>
       </c>
       <c r="O4">
-        <v>0.0002894137066834145</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="P4">
-        <v>0.0002894137066834146</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="Q4">
-        <v>0.0003880409093333333</v>
+        <v>0.2774206107144445</v>
       </c>
       <c r="R4">
-        <v>0.003492368184</v>
+        <v>2.49678549643</v>
       </c>
       <c r="S4">
-        <v>5.117235312064322E-06</v>
+        <v>0.00438598662034585</v>
       </c>
       <c r="T4">
-        <v>5.117235312064322E-06</v>
+        <v>0.00438598662034585</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.070204</v>
+        <v>0.1948456666666667</v>
       </c>
       <c r="H5">
-        <v>0.210612</v>
+        <v>0.584537</v>
       </c>
       <c r="I5">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="J5">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.783576333333334</v>
+        <v>0.136948</v>
       </c>
       <c r="N5">
-        <v>11.350729</v>
+        <v>0.410844</v>
       </c>
       <c r="O5">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="P5">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="Q5">
-        <v>0.2656221929053334</v>
+        <v>0.02668372435866666</v>
       </c>
       <c r="R5">
-        <v>2.390599736148</v>
+        <v>0.240153519228</v>
       </c>
       <c r="S5">
-        <v>0.003502855581743611</v>
+        <v>0.0004218664853945367</v>
       </c>
       <c r="T5">
-        <v>0.003502855581743611</v>
+        <v>0.0004218664853945367</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,93 +776,93 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.070204</v>
+        <v>0.1948456666666667</v>
       </c>
       <c r="H6">
-        <v>0.210612</v>
+        <v>0.584537</v>
       </c>
       <c r="I6">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="J6">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.068201</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="N6">
-        <v>0.204603</v>
+        <v>0.046352</v>
       </c>
       <c r="O6">
-        <v>0.00357103561865557</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="P6">
-        <v>0.003571035618655571</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="Q6">
-        <v>0.004787983004</v>
+        <v>0.003010495447111111</v>
       </c>
       <c r="R6">
-        <v>0.043091847036</v>
+        <v>0.027094459024</v>
       </c>
       <c r="S6">
-        <v>6.314085734858863E-05</v>
+        <v>4.759557236081716E-05</v>
       </c>
       <c r="T6">
-        <v>6.314085734858863E-05</v>
+        <v>4.759557236081717E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.070204</v>
+        <v>1.750232666666667</v>
       </c>
       <c r="H7">
-        <v>0.210612</v>
+        <v>5.250698</v>
       </c>
       <c r="I7">
-        <v>0.01768138548345256</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="J7">
-        <v>0.01768138548345256</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6300623333333333</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="N7">
-        <v>1.890187</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="O7">
-        <v>0.03299035255064547</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="P7">
-        <v>0.03299035255064547</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="Q7">
-        <v>0.04423289604933333</v>
+        <v>0.4076146027944443</v>
       </c>
       <c r="R7">
-        <v>0.398096064444</v>
+        <v>3.668531425149999</v>
       </c>
       <c r="S7">
-        <v>0.000583315140682965</v>
+        <v>0.006444338037862073</v>
       </c>
       <c r="T7">
-        <v>0.0005833151406829649</v>
+        <v>0.006444338037862075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>5.250698</v>
       </c>
       <c r="I8">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="J8">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.03428566666666667</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="N8">
-        <v>0.102857</v>
+        <v>43.730186</v>
       </c>
       <c r="O8">
-        <v>0.001795213220862138</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="P8">
-        <v>0.001795213220862138</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="Q8">
-        <v>0.06000789379844444</v>
+        <v>25.51266668553644</v>
       </c>
       <c r="R8">
-        <v>0.5400710441859999</v>
+        <v>229.614000169828</v>
       </c>
       <c r="S8">
-        <v>0.0007913457209333144</v>
+        <v>0.4033522038753119</v>
       </c>
       <c r="T8">
-        <v>0.0007913457209333144</v>
+        <v>0.403352203875312</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>5.250698</v>
       </c>
       <c r="I9">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="J9">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.57672866666667</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="N9">
-        <v>43.730186</v>
+        <v>4.27139</v>
       </c>
       <c r="O9">
-        <v>0.7632441939582174</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="P9">
-        <v>0.7632441939582175</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="Q9">
-        <v>25.51266668553644</v>
+        <v>2.491975436691111</v>
       </c>
       <c r="R9">
-        <v>229.614000169828</v>
+        <v>22.42777893022</v>
       </c>
       <c r="S9">
-        <v>0.336444729738549</v>
+        <v>0.03939783311488702</v>
       </c>
       <c r="T9">
-        <v>0.3364447297385491</v>
+        <v>0.03939783311488702</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>5.250698</v>
       </c>
       <c r="I10">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="J10">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.005527333333333333</v>
+        <v>0.136948</v>
       </c>
       <c r="N10">
-        <v>0.016582</v>
+        <v>0.410844</v>
       </c>
       <c r="O10">
-        <v>0.0002894137066834145</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="P10">
-        <v>0.0002894137066834146</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="Q10">
-        <v>0.009674119359555554</v>
+        <v>0.2396908632346666</v>
       </c>
       <c r="R10">
-        <v>0.08706707423599999</v>
+        <v>2.157217769112</v>
       </c>
       <c r="S10">
-        <v>0.0001275760983162664</v>
+        <v>0.003789483832722519</v>
       </c>
       <c r="T10">
-        <v>0.0001275760983162665</v>
+        <v>0.003789483832722519</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,72 +1107,72 @@
         <v>5.250698</v>
       </c>
       <c r="I11">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="J11">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>3.783576333333334</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="N11">
-        <v>11.350729</v>
+        <v>0.046352</v>
       </c>
       <c r="O11">
-        <v>0.1981097909449359</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="P11">
-        <v>0.1981097909449359</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="Q11">
-        <v>6.62213889542689</v>
+        <v>0.02704226152177778</v>
       </c>
       <c r="R11">
-        <v>59.599250058842</v>
+        <v>0.243380353696</v>
       </c>
       <c r="S11">
-        <v>0.08732853207485809</v>
+        <v>0.0004275349149904932</v>
       </c>
       <c r="T11">
-        <v>0.08732853207485811</v>
+        <v>0.0004275349149904933</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.750232666666667</v>
+        <v>0.1908806666666667</v>
       </c>
       <c r="H12">
-        <v>5.250698</v>
+        <v>0.5726420000000001</v>
       </c>
       <c r="I12">
-        <v>0.4408087639602367</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="J12">
-        <v>0.4408087639602367</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,60 +1181,60 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.068201</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="N12">
-        <v>0.204603</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="O12">
-        <v>0.00357103561865557</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="P12">
-        <v>0.003571035618655571</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="Q12">
-        <v>0.1193676180993333</v>
+        <v>0.04445451659444444</v>
       </c>
       <c r="R12">
-        <v>1.074308562894</v>
+        <v>0.40009064935</v>
       </c>
       <c r="S12">
-        <v>0.001574143797117541</v>
+        <v>0.0007028205816974074</v>
       </c>
       <c r="T12">
-        <v>0.001574143797117541</v>
+        <v>0.0007028205816974075</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.750232666666667</v>
+        <v>0.1908806666666667</v>
       </c>
       <c r="H13">
-        <v>5.250698</v>
+        <v>0.5726420000000001</v>
       </c>
       <c r="I13">
-        <v>0.4408087639602367</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="J13">
-        <v>0.4408087639602367</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6300623333333333</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="N13">
-        <v>1.890187</v>
+        <v>43.730186</v>
       </c>
       <c r="O13">
-        <v>0.03299035255064547</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="P13">
-        <v>0.03299035255064547</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="Q13">
-        <v>1.102755677836222</v>
+        <v>2.782415685712445</v>
       </c>
       <c r="R13">
-        <v>9.924801100525999</v>
+        <v>25.04174117141201</v>
       </c>
       <c r="S13">
-        <v>0.01454243653046247</v>
+        <v>0.04398965865710928</v>
       </c>
       <c r="T13">
-        <v>0.01454243653046247</v>
+        <v>0.04398965865710929</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.979207333333334</v>
+        <v>0.1908806666666667</v>
       </c>
       <c r="H14">
-        <v>5.937622000000001</v>
+        <v>0.5726420000000001</v>
       </c>
       <c r="I14">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="J14">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.03428566666666667</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="N14">
-        <v>0.102857</v>
+        <v>4.27139</v>
       </c>
       <c r="O14">
-        <v>0.001795213220862138</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="P14">
-        <v>0.001795213220862138</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="Q14">
-        <v>0.0678584428948889</v>
+        <v>0.2717752569311112</v>
       </c>
       <c r="R14">
-        <v>0.6107259860540001</v>
+        <v>2.445977312380001</v>
       </c>
       <c r="S14">
-        <v>0.0008948737410187196</v>
+        <v>0.004296734253345962</v>
       </c>
       <c r="T14">
-        <v>0.0008948737410187196</v>
+        <v>0.004296734253345962</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.979207333333334</v>
+        <v>0.1908806666666667</v>
       </c>
       <c r="H15">
-        <v>5.937622000000001</v>
+        <v>0.5726420000000001</v>
       </c>
       <c r="I15">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="J15">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.57672866666667</v>
+        <v>0.136948</v>
       </c>
       <c r="N15">
-        <v>43.730186</v>
+        <v>0.410844</v>
       </c>
       <c r="O15">
-        <v>0.7632441939582174</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="P15">
-        <v>0.7632441939582175</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="Q15">
-        <v>28.8503682730769</v>
+        <v>0.02614072553866667</v>
       </c>
       <c r="R15">
-        <v>259.6533144576921</v>
+        <v>0.235266529848</v>
       </c>
       <c r="S15">
-        <v>0.3804602034014646</v>
+        <v>0.0004132817391017135</v>
       </c>
       <c r="T15">
-        <v>0.3804602034014646</v>
+        <v>0.0004132817391017135</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,75 +1396,75 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.979207333333334</v>
+        <v>0.1908806666666667</v>
       </c>
       <c r="H16">
-        <v>5.937622000000001</v>
+        <v>0.5726420000000001</v>
       </c>
       <c r="I16">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="J16">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.005527333333333333</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="N16">
-        <v>0.016582</v>
+        <v>0.046352</v>
       </c>
       <c r="O16">
-        <v>0.0002894137066834145</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="P16">
-        <v>0.0002894137066834146</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="Q16">
-        <v>0.01093973866711111</v>
+        <v>0.002949233553777779</v>
       </c>
       <c r="R16">
-        <v>0.09845764800400002</v>
+        <v>0.02654310198400001</v>
       </c>
       <c r="S16">
-        <v>0.0001442662762240043</v>
+        <v>4.662702916640532E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001442662762240043</v>
+        <v>4.662702916640533E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.979207333333334</v>
+        <v>1.647881666666667</v>
       </c>
       <c r="H17">
-        <v>5.937622000000001</v>
+        <v>4.943645</v>
       </c>
       <c r="I17">
-        <v>0.4984776909056871</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="J17">
-        <v>0.4984776909056871</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,42 +1491,42 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.783576333333334</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="N17">
-        <v>11.350729</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="O17">
-        <v>0.1981097909449359</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="P17">
-        <v>0.1981097909449359</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="Q17">
-        <v>7.48848202515978</v>
+        <v>0.3837779078194444</v>
       </c>
       <c r="R17">
-        <v>67.39633822643802</v>
+        <v>3.454001170375</v>
       </c>
       <c r="S17">
-        <v>0.09875331113604005</v>
+        <v>0.006067482745948568</v>
       </c>
       <c r="T17">
-        <v>0.09875331113604006</v>
+        <v>0.006067482745948568</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.979207333333334</v>
+        <v>1.647881666666667</v>
       </c>
       <c r="H18">
-        <v>5.937622000000001</v>
+        <v>4.943645</v>
       </c>
       <c r="I18">
-        <v>0.4984776909056871</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="J18">
-        <v>0.4984776909056871</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,39 +1553,39 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.068201</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="N18">
-        <v>0.204603</v>
+        <v>43.730186</v>
       </c>
       <c r="O18">
-        <v>0.00357103561865557</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="P18">
-        <v>0.003571035618655571</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="Q18">
-        <v>0.1349839193406667</v>
+        <v>24.02072392977445</v>
       </c>
       <c r="R18">
-        <v>1.214855274066</v>
+        <v>216.18651536797</v>
       </c>
       <c r="S18">
-        <v>0.00178008158932939</v>
+        <v>0.3797647676417815</v>
       </c>
       <c r="T18">
-        <v>0.00178008158932939</v>
+        <v>0.3797647676417815</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.979207333333334</v>
+        <v>1.647881666666667</v>
       </c>
       <c r="H19">
-        <v>5.937622000000001</v>
+        <v>4.943645</v>
       </c>
       <c r="I19">
-        <v>0.4984776909056871</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="J19">
-        <v>0.4984776909056871</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6300623333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="N19">
-        <v>1.890187</v>
+        <v>4.27139</v>
       </c>
       <c r="O19">
-        <v>0.03299035255064547</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="P19">
-        <v>0.03299035255064547</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="Q19">
-        <v>1.247023990590445</v>
+        <v>2.346248424061111</v>
       </c>
       <c r="R19">
-        <v>11.223215915314</v>
+        <v>21.11623581655</v>
       </c>
       <c r="S19">
-        <v>0.0164449547616103</v>
+        <v>0.03709390650333454</v>
       </c>
       <c r="T19">
-        <v>0.0164449547616103</v>
+        <v>0.03709390650333454</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1708593333333333</v>
+        <v>1.647881666666667</v>
       </c>
       <c r="H20">
-        <v>0.512578</v>
+        <v>4.943645</v>
       </c>
       <c r="I20">
-        <v>0.04303215965062364</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="J20">
-        <v>0.04303215965062363</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.03428566666666667</v>
+        <v>0.136948</v>
       </c>
       <c r="N20">
-        <v>0.102857</v>
+        <v>0.410844</v>
       </c>
       <c r="O20">
-        <v>0.001795213220862138</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="P20">
-        <v>0.001795213220862138</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="Q20">
-        <v>0.005858026149555555</v>
+        <v>0.2256740984866666</v>
       </c>
       <c r="R20">
-        <v>0.05272223534599999</v>
+        <v>2.03106688638</v>
       </c>
       <c r="S20">
-        <v>7.725190192704979E-05</v>
+        <v>0.003567880461268106</v>
       </c>
       <c r="T20">
-        <v>7.725190192704978E-05</v>
+        <v>0.003567880461268106</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,155 +1706,155 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.647881666666667</v>
+      </c>
+      <c r="H21">
+        <v>4.943645</v>
+      </c>
+      <c r="I21">
+        <v>0.4268965706621552</v>
+      </c>
+      <c r="J21">
+        <v>0.4268965706621552</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="L21">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G21">
-        <v>0.1708593333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.512578</v>
-      </c>
-      <c r="I21">
-        <v>0.04303215965062364</v>
-      </c>
-      <c r="J21">
-        <v>0.04303215965062363</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
       <c r="M21">
-        <v>14.57672866666667</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="N21">
-        <v>43.730186</v>
+        <v>0.046352</v>
       </c>
       <c r="O21">
-        <v>0.7632441939582174</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="P21">
-        <v>0.7632441939582175</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="Q21">
-        <v>2.490570142167556</v>
+        <v>0.02546087033777778</v>
       </c>
       <c r="R21">
-        <v>22.415131279508</v>
+        <v>0.22914783304</v>
       </c>
       <c r="S21">
-        <v>0.03284404600682157</v>
+        <v>0.0004025333098224612</v>
       </c>
       <c r="T21">
-        <v>0.03284404600682157</v>
+        <v>0.0004025333098224613</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.1708593333333333</v>
+        <v>0.07630199999999999</v>
       </c>
       <c r="H22">
-        <v>0.512578</v>
+        <v>0.228906</v>
       </c>
       <c r="I22">
-        <v>0.04303215965062364</v>
+        <v>0.01976662693295965</v>
       </c>
       <c r="J22">
-        <v>0.04303215965062363</v>
+        <v>0.01976662693295965</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.005527333333333333</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="N22">
-        <v>0.016582</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="O22">
-        <v>0.0002894137066834145</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="P22">
-        <v>0.0002894137066834146</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="Q22">
-        <v>0.0009443964884444444</v>
+        <v>0.01777009995</v>
       </c>
       <c r="R22">
-        <v>0.008499568395999999</v>
+        <v>0.15993089955</v>
       </c>
       <c r="S22">
-        <v>1.245409683107946E-05</v>
+        <v>0.00028094315134766</v>
       </c>
       <c r="T22">
-        <v>1.245409683107946E-05</v>
+        <v>0.0002809431513476601</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.1708593333333333</v>
+        <v>0.07630199999999999</v>
       </c>
       <c r="H23">
-        <v>0.512578</v>
+        <v>0.228906</v>
       </c>
       <c r="I23">
-        <v>0.04303215965062364</v>
+        <v>0.01976662693295965</v>
       </c>
       <c r="J23">
-        <v>0.04303215965062363</v>
+        <v>0.01976662693295965</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,60 +1863,60 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.783576333333334</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="N23">
-        <v>11.350729</v>
+        <v>43.730186</v>
       </c>
       <c r="O23">
-        <v>0.1981097909449359</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="P23">
-        <v>0.1981097909449359</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="Q23">
-        <v>0.6464593299291113</v>
+        <v>1.112233550724</v>
       </c>
       <c r="R23">
-        <v>5.818133969362</v>
+        <v>10.010101956516</v>
       </c>
       <c r="S23">
-        <v>0.008525092152294156</v>
+        <v>0.0175842791911251</v>
       </c>
       <c r="T23">
-        <v>0.008525092152294156</v>
+        <v>0.0175842791911251</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.1708593333333333</v>
+        <v>0.07630199999999999</v>
       </c>
       <c r="H24">
-        <v>0.512578</v>
+        <v>0.228906</v>
       </c>
       <c r="I24">
-        <v>0.04303215965062364</v>
+        <v>0.01976662693295965</v>
       </c>
       <c r="J24">
-        <v>0.04303215965062363</v>
+        <v>0.01976662693295965</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,90 +1925,152 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.068201</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="N24">
-        <v>0.204603</v>
+        <v>4.27139</v>
       </c>
       <c r="O24">
-        <v>0.00357103561865557</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="P24">
-        <v>0.003571035618655571</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="Q24">
-        <v>0.01165277739266667</v>
+        <v>0.10863853326</v>
       </c>
       <c r="R24">
-        <v>0.104874996534</v>
+        <v>0.9777467993400001</v>
       </c>
       <c r="S24">
-        <v>0.0001536693748600501</v>
+        <v>0.001717562195920681</v>
       </c>
       <c r="T24">
-        <v>0.00015366937486005</v>
+        <v>0.001717562195920681</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.07630199999999999</v>
+      </c>
+      <c r="H25">
+        <v>0.228906</v>
+      </c>
+      <c r="I25">
+        <v>0.01976662693295965</v>
+      </c>
+      <c r="J25">
+        <v>0.01976662693295965</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.136948</v>
+      </c>
+      <c r="N25">
+        <v>0.410844</v>
+      </c>
+      <c r="O25">
+        <v>0.008357716380185487</v>
+      </c>
+      <c r="P25">
+        <v>0.008357716380185487</v>
+      </c>
+      <c r="Q25">
+        <v>0.010449406296</v>
+      </c>
+      <c r="R25">
+        <v>0.094044656664</v>
+      </c>
+      <c r="S25">
+        <v>0.0001652038616986124</v>
+      </c>
+      <c r="T25">
+        <v>0.0001652038616986124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.07630199999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.228906</v>
+      </c>
+      <c r="I26">
+        <v>0.01976662693295965</v>
+      </c>
+      <c r="J26">
+        <v>0.01976662693295965</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="F25">
+      <c r="L26">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G25">
-        <v>0.1708593333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.512578</v>
-      </c>
-      <c r="I25">
-        <v>0.04303215965062364</v>
-      </c>
-      <c r="J25">
-        <v>0.04303215965062363</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.6300623333333333</v>
-      </c>
-      <c r="N25">
-        <v>1.890187</v>
-      </c>
-      <c r="O25">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="P25">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="Q25">
-        <v>0.1076520302317778</v>
-      </c>
-      <c r="R25">
-        <v>0.9688682720859999</v>
-      </c>
-      <c r="S25">
-        <v>0.001419646117889735</v>
-      </c>
-      <c r="T25">
-        <v>0.001419646117889735</v>
+      <c r="M26">
+        <v>0.01545066666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.046352</v>
+      </c>
+      <c r="O26">
+        <v>0.0009429293592077716</v>
+      </c>
+      <c r="P26">
+        <v>0.0009429293592077717</v>
+      </c>
+      <c r="Q26">
+        <v>0.001178916768</v>
+      </c>
+      <c r="R26">
+        <v>0.010610250912</v>
+      </c>
+      <c r="S26">
+        <v>1.863853286759472E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.863853286759472E-05</v>
       </c>
     </row>
   </sheetData>
